--- a/raftaar-impl/assets/testcase.xlsx
+++ b/raftaar-impl/assets/testcase.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2520" windowWidth="10830" windowHeight="2520" tabRatio="752" activeTab="3"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="500">
   <si>
     <t>openBrowser</t>
   </si>
@@ -1493,6 +1493,36 @@
   </si>
   <si>
     <t>linkText=Home</t>
+  </si>
+  <si>
+    <t>Test.Case.1001</t>
+  </si>
+  <si>
+    <t>Verify First Mobile Test is running successfully</t>
+  </si>
+  <si>
+    <t>Click on Two</t>
+  </si>
+  <si>
+    <t>Set Activity Name</t>
+  </si>
+  <si>
+    <t>Set Package Name</t>
+  </si>
+  <si>
+    <t>appPackage</t>
+  </si>
+  <si>
+    <t>appActivity</t>
+  </si>
+  <si>
+    <t>com.android.calculator2</t>
+  </si>
+  <si>
+    <t>com.android.calculator2.Calculator</t>
+  </si>
+  <si>
+    <t>name=2</t>
   </si>
 </sst>
 </file>
@@ -3390,10 +3420,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD102"/>
+  <dimension ref="A1:XFD106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
@@ -21475,6 +21505,72 @@
       </c>
       <c r="G102" s="6"/>
     </row>
+    <row r="103" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+    </row>
+    <row r="104" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="6"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
+    </row>
+    <row r="105" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="6"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
+    </row>
+    <row r="106" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1"/>
@@ -21501,7 +21597,7 @@
   <pageSetup orientation="portrait" r:id="rId20"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'C:\Selenium\framework\plugIn\excel\[automationTemplate.xlsm]$automationKeywords$'!#REF!</xm:f>

--- a/raftaar-impl/assets/testcase.xlsx
+++ b/raftaar-impl/assets/testcase.xlsx
@@ -4,16 +4,17 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="10830" windowHeight="2520" tabRatio="752" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="10830" windowHeight="2520" tabRatio="752" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="KeywordList" sheetId="13" r:id="rId1"/>
     <sheet name="FlagsList" sheetId="23" r:id="rId2"/>
     <sheet name="Template" sheetId="20" r:id="rId3"/>
-    <sheet name="TestSuite1" sheetId="12" r:id="rId4"/>
+    <sheet name="webTestSuite" sheetId="12" r:id="rId4"/>
+    <sheet name="mobileTestSuite" sheetId="24" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">KeywordList!$A$1:$B$151</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="511">
   <si>
     <t>openBrowser</t>
   </si>
@@ -1523,6 +1524,39 @@
   </si>
   <si>
     <t>name=2</t>
+  </si>
+  <si>
+    <t>Click on + symbol</t>
+  </si>
+  <si>
+    <t>Click on four</t>
+  </si>
+  <si>
+    <t>Click on = symbol</t>
+  </si>
+  <si>
+    <t>name=+</t>
+  </si>
+  <si>
+    <t>name=4</t>
+  </si>
+  <si>
+    <t>name==</t>
+  </si>
+  <si>
+    <t>className=android.widget.EditText</t>
+  </si>
+  <si>
+    <t>Get Result</t>
+  </si>
+  <si>
+    <t>Verify Result</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>#result</t>
   </si>
 </sst>
 </file>
@@ -3422,14 +3456,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A102" sqref="A102"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E63" sqref="E63:G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="72.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
@@ -21506,60 +21540,34 @@
       <c r="G102" s="6"/>
     </row>
     <row r="103" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>494</v>
-      </c>
+      <c r="A103" s="6"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
       <c r="D103" s="6"/>
-      <c r="E103" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="F103" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G103" s="6" t="s">
-        <v>497</v>
-      </c>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
       <c r="H103" s="6"/>
       <c r="I103" s="6"/>
     </row>
     <row r="104" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
-      <c r="C104" s="6" t="s">
-        <v>493</v>
-      </c>
+      <c r="C104" s="6"/>
       <c r="D104" s="6"/>
-      <c r="E104" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="F104" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G104" s="6" t="s">
-        <v>498</v>
-      </c>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
       <c r="H104" s="6"/>
       <c r="I104" s="6"/>
     </row>
     <row r="105" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
-      <c r="C105" s="6" t="s">
-        <v>492</v>
-      </c>
+      <c r="C105" s="6"/>
       <c r="D105" s="6"/>
-      <c r="E105" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="F105" s="6" t="s">
-        <v>2</v>
-      </c>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
       <c r="I105" s="6"/>
@@ -21608,4 +21616,184 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="6">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/raftaar-impl/assets/testcase.xlsx
+++ b/raftaar-impl/assets/testcase.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="520">
   <si>
     <t>openBrowser</t>
   </si>
@@ -1505,12 +1505,6 @@
     <t>Click on Two</t>
   </si>
   <si>
-    <t>Set Activity Name</t>
-  </si>
-  <si>
-    <t>Set Package Name</t>
-  </si>
-  <si>
     <t>appPackage</t>
   </si>
   <si>
@@ -1557,6 +1551,39 @@
   </si>
   <si>
     <t>#result</t>
+  </si>
+  <si>
+    <t>Set Android Version</t>
+  </si>
+  <si>
+    <t>Set Device Name</t>
+  </si>
+  <si>
+    <t>Set Platform Name</t>
+  </si>
+  <si>
+    <t>Set App Package Name</t>
+  </si>
+  <si>
+    <t>Set App Activity Name</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>platformName</t>
+  </si>
+  <si>
+    <t>5.0.2</t>
+  </si>
+  <si>
+    <t>Emulator</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>deviceName</t>
   </si>
 </sst>
 </file>
@@ -21620,24 +21647,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="5" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -21678,17 +21705,17 @@
         <v>491</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>56</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>497</v>
+        <v>516</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
@@ -21697,17 +21724,17 @@
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
-        <v>493</v>
+        <v>510</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
-        <v>496</v>
+        <v>519</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>56</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -21716,79 +21743,124 @@
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
-        <v>492</v>
+        <v>511</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
-        <v>499</v>
+        <v>515</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>518</v>
+      </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="6" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>504</v>
+      <c r="C6" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>494</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>2</v>
+        <v>56</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>505</v>
+      <c r="C7" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>497</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>506</v>
+      <c r="C8" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>501</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>509</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G12" s="6">
         <v>6</v>
       </c>
     </row>

--- a/raftaar-impl/assets/testcase.xlsx
+++ b/raftaar-impl/assets/testcase.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2520" windowWidth="10830" windowHeight="2520" tabRatio="752" activeTab="4"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="528">
   <si>
     <t>openBrowser</t>
   </si>
@@ -1584,6 +1584,30 @@
   </si>
   <si>
     <t>deviceName</t>
+  </si>
+  <si>
+    <t>Close App</t>
+  </si>
+  <si>
+    <t>closeApp</t>
+  </si>
+  <si>
+    <t>Test.Case.1002</t>
+  </si>
+  <si>
+    <t>Verify 2nd Mobile Test is running successfully</t>
+  </si>
+  <si>
+    <t>com.hcentive.hcmobile538102</t>
+  </si>
+  <si>
+    <t>com.hcentive.hcmobile538102.MainActivity</t>
+  </si>
+  <si>
+    <t>Launch App</t>
+  </si>
+  <si>
+    <t>launchApp</t>
   </si>
 </sst>
 </file>
@@ -1714,7 +1738,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1748,6 +1772,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3483,9 +3511,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD106"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E63" sqref="E63:G63"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -21647,25 +21675,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="14" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -21790,24 +21818,22 @@
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="6" t="s">
-        <v>492</v>
+        <v>526</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="6" t="s">
-        <v>497</v>
-      </c>
+      <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
-        <v>2</v>
+        <v>527</v>
       </c>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="6" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>2</v>
@@ -21815,54 +21841,155 @@
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>502</v>
+      <c r="C9" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>501</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>503</v>
+      <c r="C10" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>502</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="5" t="s">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G13" s="6">
         <v>6</v>
       </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
